--- a/August'21/30.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/30.08.2021/Daily Sales Info August-2021.xlsx
@@ -13584,7 +13584,7 @@
     <sheetView topLeftCell="B4" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13697,7 +13697,7 @@
         <v>441</v>
       </c>
       <c r="K4" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="9"/>
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="9"/>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -18610,7 +18610,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -18983,7 +18983,7 @@
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -21882,7 +21882,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -23954,7 +23954,7 @@
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -25264,7 +25264,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25637,7 +25637,7 @@
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -29028,7 +29028,7 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -30517,7 +30517,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="9"/>
@@ -30912,7 +30912,7 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -32440,7 +32440,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="9"/>
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="9"/>
@@ -32834,7 +32834,7 @@
       </c>
       <c r="K4" s="2">
         <f>'1'!K29</f>
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L29</f>
@@ -34096,7 +34096,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -34469,7 +34469,7 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -35853,7 +35853,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="9"/>
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="9"/>
@@ -36248,7 +36248,7 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -37580,7 +37580,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -37953,7 +37953,7 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -39299,7 +39299,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39672,7 +39672,7 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41428,7 +41428,7 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -42758,7 +42758,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -43131,7 +43131,7 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -44451,7 +44451,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44823,7 +44823,7 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -46161,7 +46161,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46533,7 +46533,7 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -47753,7 +47753,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -48125,7 +48125,7 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -49445,7 +49445,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -49821,7 +49821,7 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -51530,7 +51530,7 @@
       </c>
       <c r="K4" s="2">
         <f>'2'!K29</f>
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2">
         <f>'2'!L29</f>
@@ -52880,7 +52880,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -53130,7 +53130,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -53256,7 +53256,7 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -54739,7 +54739,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="9"/>
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="9"/>
@@ -55113,7 +55113,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -56291,7 +56291,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -56665,7 +56665,7 @@
       </c>
       <c r="K4" s="2">
         <f>'1'!K4</f>
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L4</f>
@@ -58500,7 +58500,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -59273,7 +59273,7 @@
       </c>
       <c r="K4" s="2">
         <f>'3'!K29</f>
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="L4" s="2">
         <f>'3'!L29</f>
@@ -60637,7 +60637,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
@@ -62375,7 +62375,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -62747,7 +62747,7 @@
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
@@ -63933,7 +63933,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -64305,7 +64305,7 @@
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -66007,7 +66007,7 @@
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
@@ -67359,7 +67359,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -67732,7 +67732,7 @@
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
@@ -69076,7 +69076,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
